--- a/data/en_word/en_word_excel.xlsx
+++ b/data/en_word/en_word_excel.xlsx
@@ -34,23 +34,19 @@
     <t>name</t>
   </si>
   <si>
-    <t>category
-级别/等级</t>
+    <t>category</t>
   </si>
   <si>
     <t>user</t>
   </si>
   <si>
-    <t>type
-0-单词;1-句子</t>
+    <t>type</t>
   </si>
   <si>
-    <t>status
-0-未学;1-学会</t>
+    <t>status</t>
   </si>
   <si>
-    <t>parent_id
-单词与句子的对应关系</t>
+    <t>parent_id</t>
   </si>
   <si>
     <t>I can play the</t>
@@ -1034,7 +1030,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1046,7 +1042,7 @@
     <col min="6" max="6" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:6">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1103,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1123,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1143,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1163,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6">

--- a/data/en_word/en_word_excel.xlsx
+++ b/data/en_word/en_word_excel.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>name</t>
   </si>
@@ -65,6 +65,84 @@
   </si>
   <si>
     <t>english</t>
+  </si>
+  <si>
+    <t>A a</t>
+  </si>
+  <si>
+    <t>B b</t>
+  </si>
+  <si>
+    <t>C c</t>
+  </si>
+  <si>
+    <t>D d</t>
+  </si>
+  <si>
+    <t>E e</t>
+  </si>
+  <si>
+    <t>F f</t>
+  </si>
+  <si>
+    <t>G g</t>
+  </si>
+  <si>
+    <t>H h</t>
+  </si>
+  <si>
+    <t>I i</t>
+  </si>
+  <si>
+    <t>J j</t>
+  </si>
+  <si>
+    <t>K k</t>
+  </si>
+  <si>
+    <t>L l</t>
+  </si>
+  <si>
+    <t>M m</t>
+  </si>
+  <si>
+    <t>N n</t>
+  </si>
+  <si>
+    <t>O o</t>
+  </si>
+  <si>
+    <t>P p</t>
+  </si>
+  <si>
+    <t>Q q</t>
+  </si>
+  <si>
+    <t>R r</t>
+  </si>
+  <si>
+    <t>S s</t>
+  </si>
+  <si>
+    <t>T t</t>
+  </si>
+  <si>
+    <t>U u</t>
+  </si>
+  <si>
+    <t>V v</t>
+  </si>
+  <si>
+    <t>W w</t>
+  </si>
+  <si>
+    <t>X x</t>
+  </si>
+  <si>
+    <t>Y y</t>
+  </si>
+  <si>
+    <t>Z z</t>
   </si>
 </sst>
 </file>
@@ -1025,12 +1103,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1163,148 +1241,524 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>999</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>999</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>999</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>999</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>999</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>999</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>999</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>999</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>999</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>999</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>999</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>999</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>999</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>999</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>999</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>999</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>999</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/en_word/en_word_excel.xlsx
+++ b/data/en_word/en_word_excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525"/>
+    <workbookView windowWidth="15345" windowHeight="25125"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
@@ -143,6 +143,111 @@
   </si>
   <si>
     <t>Z z</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>hide</t>
+  </si>
+  <si>
+    <t>seek</t>
+  </si>
+  <si>
+    <t>cross</t>
+  </si>
+  <si>
+    <t>go away</t>
+  </si>
+  <si>
+    <t>pet</t>
+  </si>
+  <si>
+    <t>rat</t>
+  </si>
+  <si>
+    <t>spider</t>
+  </si>
+  <si>
+    <t>snake</t>
+  </si>
+  <si>
+    <t>goldfish</t>
+  </si>
+  <si>
+    <t>wheel</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t>headache</t>
+  </si>
+  <si>
+    <t>trumpet</t>
+  </si>
+  <si>
+    <t>drum</t>
+  </si>
+  <si>
+    <t>recorder</t>
+  </si>
+  <si>
+    <t>guitar</t>
+  </si>
+  <si>
+    <t>hook</t>
+  </si>
+  <si>
+    <t>monster</t>
+  </si>
+  <si>
+    <t>dinosaur</t>
+  </si>
+  <si>
+    <t>giant</t>
+  </si>
+  <si>
+    <t>muddy</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>slide</t>
+  </si>
+  <si>
+    <t>ladder</t>
+  </si>
+  <si>
+    <t>ice cream</t>
+  </si>
+  <si>
+    <t>look out</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>pat</t>
+  </si>
+  <si>
+    <t>mud</t>
   </si>
 </sst>
 </file>
@@ -1103,12 +1208,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8:F32"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1758,6 +1863,196 @@
       </c>
       <c r="F32" s="3">
         <v>999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
